--- a/data/outputs/OR_altmetric/13.xlsx
+++ b/data/outputs/OR_altmetric/13.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE90"/>
+  <dimension ref="A1:CF90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1043,6 +1048,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1304,6 +1312,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1551,6 +1562,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,6 +1812,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2045,6 +2062,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2290,6 +2310,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2543,6 +2566,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2802,6 +2828,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3029,6 +3058,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3282,6 +3314,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3535,6 +3570,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3792,6 +3830,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4045,6 +4086,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4298,6 +4342,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4559,6 +4606,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4816,6 +4866,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5069,6 +5122,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5320,6 +5376,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5567,6 +5626,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5828,6 +5890,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6089,6 +6154,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6350,6 +6418,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6611,6 +6682,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6868,6 +6942,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7123,6 +7200,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7370,6 +7450,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7631,6 +7714,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7888,6 +7974,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8141,6 +8230,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8394,6 +8486,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8651,6 +8746,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8904,6 +9002,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9159,6 +9260,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9406,6 +9510,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9661,6 +9768,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9904,6 +10014,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10159,6 +10272,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10406,6 +10522,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10663,6 +10782,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10916,6 +11038,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11169,6 +11294,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11422,6 +11550,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11673,6 +11804,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11920,6 +12054,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12169,6 +12306,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12422,6 +12562,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12679,6 +12822,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12936,6 +13082,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13183,6 +13332,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13430,6 +13582,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13673,6 +13828,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13920,6 +14078,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14173,6 +14334,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14420,6 +14584,9 @@
         <v>0</v>
       </c>
       <c r="CE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14667,6 +14834,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14912,6 +15082,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15169,6 +15342,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15432,6 +15608,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15685,6 +15864,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15938,6 +16120,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16191,6 +16376,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16444,6 +16632,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16697,6 +16888,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16954,6 +17148,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17203,6 +17400,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17460,6 +17660,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17717,6 +17920,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17978,6 +18184,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18231,6 +18440,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18484,6 +18696,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18739,6 +18954,9 @@
         <v>0</v>
       </c>
       <c r="CE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18986,6 +19204,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19239,6 +19460,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19492,6 +19716,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19745,6 +19972,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -20006,6 +20236,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20259,6 +20492,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20516,6 +20752,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20771,6 +21010,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21018,6 +21260,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21263,6 +21508,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21516,6 +21764,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21769,6 +22020,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -22022,6 +22276,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22273,6 +22530,9 @@
         <v>0</v>
       </c>
       <c r="CE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22520,6 +22780,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22765,6 +23028,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -23016,6 +23282,9 @@
         <v>0</v>
       </c>
       <c r="CE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23263,6 +23532,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
